--- a/Excel/ExpConfig.xlsx
+++ b/Excel/ExpConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FE48B8-B648-4A18-9ADC-E6672117E66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB9B484-16CA-48B6-8AE3-0CA1B5133C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="735" windowWidth="27045" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpProto" sheetId="1" r:id="rId1"/>
@@ -1816,7 +1816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1824,14 +1824,14 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1840,9 +1840,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2585,7 +2582,7 @@
   <dimension ref="C1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2595,20 +2592,20 @@
     <col min="7" max="8" width="17.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="8"/>
-    <col min="14" max="17" width="9" style="17"/>
+    <col min="14" max="17" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:17" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="G1"/>
       <c r="H1"/>
       <c r="J1" s="7"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
     </row>
     <row r="3" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2640,7 +2637,7 @@
       </c>
     </row>
     <row r="4" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2672,7 +2669,7 @@
       </c>
     </row>
     <row r="5" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2716,26 +2713,26 @@
       <c r="F6" s="3">
         <v>80000</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>200</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>150</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="3">
         <v>1000</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="3">
         <v>100</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="3">
         <v>30</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="3">
         <v>30</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
@@ -2750,31 +2747,31 @@
       <c r="F7" s="3">
         <v>80000</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>230</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <f>H6+5</f>
         <v>155</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="3">
         <f>I6+100</f>
         <v>1100</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="3">
         <f>J6+20</f>
         <v>120</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="3">
         <f>K6+5</f>
         <v>35</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="3">
         <f>L6+5</f>
         <v>35</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
@@ -2789,31 +2786,31 @@
       <c r="F8" s="3">
         <v>80000</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>260</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <f t="shared" ref="H8:H71" si="0">H7+5</f>
         <v>160</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="3">
         <f t="shared" ref="I8:I71" si="1">I7+100</f>
         <v>1200</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="3">
         <f t="shared" ref="J8:J71" si="2">J7+20</f>
         <v>140</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="3">
         <f t="shared" ref="K8:L23" si="3">K7+5</f>
         <v>40</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="3">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
@@ -2828,31 +2825,31 @@
       <c r="F9" s="3">
         <v>80000</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>290</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="3">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="3">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="3">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
@@ -2867,31 +2864,31 @@
       <c r="F10" s="3">
         <v>85000</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>320</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="3">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="3">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="3">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
@@ -2906,31 +2903,31 @@
       <c r="F11" s="3">
         <v>90000</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>350</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="3">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="3">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="3">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="3">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
@@ -2945,31 +2942,31 @@
       <c r="F12" s="3">
         <v>95000</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>380</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="3">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="3">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
@@ -2984,31 +2981,31 @@
       <c r="F13" s="3">
         <v>100000</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>410</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="3">
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="3">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="3">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="3">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
@@ -3023,31 +3020,31 @@
       <c r="F14" s="3">
         <v>105000</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>440</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="3">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="3">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="3">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="3">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="3">
@@ -3062,31 +3059,31 @@
       <c r="F15" s="3">
         <v>110000</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>480</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="3">
         <f t="shared" si="1"/>
         <v>1900</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="3">
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="3">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="3">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
@@ -3101,31 +3098,31 @@
       <c r="F16" s="3">
         <v>115000</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>520</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="3">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="3">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="3">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="3">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
@@ -3140,31 +3137,31 @@
       <c r="F17" s="3">
         <v>120000</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>560</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="3">
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="3">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="3">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="3">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
@@ -3179,31 +3176,31 @@
       <c r="F18" s="3">
         <v>125000</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>600</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="3">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="3">
         <f t="shared" si="2"/>
         <v>340</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="3">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="3">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
@@ -3218,38 +3215,38 @@
       <c r="F19" s="3">
         <v>130000</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>650</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="3">
         <f t="shared" si="1"/>
         <v>2300</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="3">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="3">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="3">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="3">
         <v>15</v>
       </c>
       <c r="D20" s="6">
-        <v>43220</v>
+        <v>47420</v>
       </c>
       <c r="E20" s="3">
         <v>25932</v>
@@ -3257,38 +3254,38 @@
       <c r="F20" s="3">
         <v>135000</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>700</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="3">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="3">
         <f t="shared" si="2"/>
         <v>380</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="3">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="3">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
     </row>
     <row r="21" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="3">
         <v>16</v>
       </c>
       <c r="D21" s="6">
-        <v>49760</v>
+        <v>54380</v>
       </c>
       <c r="E21" s="3">
         <v>29856</v>
@@ -3296,38 +3293,38 @@
       <c r="F21" s="3">
         <v>140000</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>750</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="3">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="3">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="3">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="3">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
     </row>
     <row r="22" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
         <v>17</v>
       </c>
       <c r="D22" s="6">
-        <v>56700</v>
+        <v>61740</v>
       </c>
       <c r="E22" s="3">
         <v>34020</v>
@@ -3335,38 +3332,38 @@
       <c r="F22" s="3">
         <v>145000</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <v>800</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="3">
         <f t="shared" si="1"/>
         <v>2600</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="3">
         <f t="shared" si="2"/>
         <v>420</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="3">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="3">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="3">
         <v>18</v>
       </c>
       <c r="D23" s="6">
-        <v>64040</v>
+        <v>69500</v>
       </c>
       <c r="E23" s="3">
         <v>38424</v>
@@ -3374,38 +3371,38 @@
       <c r="F23" s="3">
         <v>150000</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <v>850</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="3">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="3">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="3">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="3">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="3">
         <v>19</v>
       </c>
       <c r="D24" s="6">
-        <v>71780</v>
+        <v>110300</v>
       </c>
       <c r="E24" s="3">
         <v>43068</v>
@@ -3413,38 +3410,38 @@
       <c r="F24" s="3">
         <v>155000</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="12">
         <v>900</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="3">
         <f t="shared" si="1"/>
         <v>2800</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="3">
         <f t="shared" si="2"/>
         <v>460</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="3">
         <f t="shared" ref="K24:L39" si="4">K23+5</f>
         <v>120</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="3">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="3">
         <v>20</v>
       </c>
       <c r="D25" s="6">
-        <v>81480</v>
+        <v>122220</v>
       </c>
       <c r="E25" s="3">
         <v>48888</v>
@@ -3452,38 +3449,38 @@
       <c r="F25" s="3">
         <v>160000</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="12">
         <v>950</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="3">
         <f t="shared" si="1"/>
         <v>2900</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="3">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="3">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="3">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="3">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>92090</v>
+        <v>135050</v>
       </c>
       <c r="E26" s="3">
         <v>55254</v>
@@ -3491,38 +3488,38 @@
       <c r="F26" s="3">
         <v>165000</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="12">
         <v>1000</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="3">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="3">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="3">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="3">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
     </row>
     <row r="27" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>103020</v>
+        <v>148200</v>
       </c>
       <c r="E27" s="3">
         <v>61812</v>
@@ -3530,38 +3527,38 @@
       <c r="F27" s="3">
         <v>170000</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <v>1075</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="3">
         <f t="shared" si="1"/>
         <v>3100</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="3">
         <f t="shared" si="2"/>
         <v>520</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="3">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="3">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
     </row>
     <row r="28" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="3">
         <v>23</v>
       </c>
       <c r="D28" s="3">
-        <v>114550</v>
+        <v>161950</v>
       </c>
       <c r="E28" s="3">
         <v>68730</v>
@@ -3569,38 +3566,38 @@
       <c r="F28" s="3">
         <v>175000</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="12">
         <v>1150</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="12">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="3">
         <f t="shared" si="1"/>
         <v>3200</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="3">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="3">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="3">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="3">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>126680</v>
+        <v>176300</v>
       </c>
       <c r="E29" s="3">
         <v>76008</v>
@@ -3608,38 +3605,38 @@
       <c r="F29" s="3">
         <v>180000</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="12">
         <v>1225</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="12">
         <f t="shared" si="0"/>
         <v>265</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="3">
         <f t="shared" si="1"/>
         <v>3300</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="3">
         <f t="shared" si="2"/>
         <v>560</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="3">
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="3">
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
     </row>
     <row r="30" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="3">
         <v>25</v>
       </c>
       <c r="D30" s="3">
-        <v>139410</v>
+        <v>191250</v>
       </c>
       <c r="E30" s="3">
         <v>83646</v>
@@ -3647,38 +3644,38 @@
       <c r="F30" s="3">
         <v>185000</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="12">
         <v>1300</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="12">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="3">
         <f t="shared" si="1"/>
         <v>3400</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="3">
         <f t="shared" si="2"/>
         <v>580</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="3">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="3">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="3">
         <v>26</v>
       </c>
       <c r="D31" s="3">
-        <v>153200</v>
+        <v>207260</v>
       </c>
       <c r="E31" s="3">
         <v>91920</v>
@@ -3686,38 +3683,38 @@
       <c r="F31" s="3">
         <v>190000</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="12">
         <v>1375</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="12">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="3">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="3">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="3">
         <f t="shared" si="4"/>
         <v>155</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="3">
         <f t="shared" si="4"/>
         <v>155</v>
       </c>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="3">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>167160</v>
+        <v>223440</v>
       </c>
       <c r="E32" s="3">
         <v>100296</v>
@@ -3725,38 +3722,38 @@
       <c r="F32" s="3">
         <v>195000</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="12">
         <v>1450</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="12">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="3">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="3">
         <f t="shared" si="2"/>
         <v>620</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="3">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="3">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="3">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>181720</v>
+        <v>240220</v>
       </c>
       <c r="E33" s="3">
         <v>109032</v>
@@ -3764,38 +3761,38 @@
       <c r="F33" s="3">
         <v>200000</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="12">
         <v>1525</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="12">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="3">
         <f t="shared" si="1"/>
         <v>3700</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="3">
         <f t="shared" si="2"/>
         <v>640</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="3">
         <f t="shared" si="4"/>
         <v>165</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="3">
         <f t="shared" si="4"/>
         <v>165</v>
       </c>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
     </row>
     <row r="34" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="3">
         <v>29</v>
       </c>
       <c r="D34" s="3">
-        <v>196880</v>
+        <v>299800</v>
       </c>
       <c r="E34" s="3">
         <v>118128</v>
@@ -3803,38 +3800,38 @@
       <c r="F34" s="3">
         <v>205000</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <v>1600</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="12">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="3">
         <f t="shared" si="1"/>
         <v>3800</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="3">
         <f t="shared" si="2"/>
         <v>660</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="3">
         <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="3">
         <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
     </row>
     <row r="35" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="3">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>335240</v>
+        <v>432680</v>
       </c>
       <c r="E35" s="3">
         <v>201144</v>
@@ -3842,38 +3839,38 @@
       <c r="F35" s="3">
         <v>210000</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <v>1700</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="12">
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="3">
         <f t="shared" si="1"/>
         <v>3900</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="3">
         <f t="shared" si="2"/>
         <v>680</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="3">
         <f t="shared" si="4"/>
         <v>175</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="3">
         <f t="shared" si="4"/>
         <v>175</v>
       </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
     </row>
     <row r="36" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="3">
         <v>31</v>
       </c>
       <c r="D36" s="3">
-        <v>356410</v>
+        <v>456520</v>
       </c>
       <c r="E36" s="3">
         <v>213846</v>
@@ -3881,38 +3878,38 @@
       <c r="F36" s="3">
         <v>215000</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <v>1800</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="12">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="3">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="3">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="3">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="3">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="3">
         <v>32</v>
       </c>
       <c r="D37" s="3">
-        <v>377600</v>
+        <v>480380</v>
       </c>
       <c r="E37" s="3">
         <v>226560</v>
@@ -3920,38 +3917,38 @@
       <c r="F37" s="3">
         <v>220000</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <v>1925</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="12">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="3">
         <f t="shared" si="1"/>
         <v>4100</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="3">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="3">
         <f t="shared" si="4"/>
         <v>185</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="3">
         <f t="shared" si="4"/>
         <v>185</v>
       </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="38" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="3">
         <v>33</v>
       </c>
       <c r="D38" s="3">
-        <v>399390</v>
+        <v>504840</v>
       </c>
       <c r="E38" s="3">
         <v>239634</v>
@@ -3959,38 +3956,38 @@
       <c r="F38" s="3">
         <v>225000</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <v>2050</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="3">
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="3">
         <f t="shared" si="2"/>
         <v>740</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="3">
         <f t="shared" si="4"/>
         <v>190</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="3">
         <f t="shared" si="4"/>
         <v>190</v>
       </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="3">
         <v>34</v>
       </c>
       <c r="D39" s="3">
-        <v>421780</v>
+        <v>529900</v>
       </c>
       <c r="E39" s="3">
         <v>253068</v>
@@ -3998,38 +3995,38 @@
       <c r="F39" s="3">
         <v>230000</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>2175</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="3">
         <f t="shared" si="1"/>
         <v>4300</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="3">
         <f t="shared" si="2"/>
         <v>760</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="3">
         <f t="shared" si="4"/>
         <v>195</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="3">
         <f t="shared" si="4"/>
         <v>195</v>
       </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
     </row>
     <row r="40" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="3">
         <v>35</v>
       </c>
       <c r="D40" s="3">
-        <v>444770</v>
+        <v>555560</v>
       </c>
       <c r="E40" s="3">
         <v>266862</v>
@@ -4037,38 +4034,38 @@
       <c r="F40" s="3">
         <v>235000</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="12">
         <v>2300</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="12">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="3">
         <f t="shared" si="1"/>
         <v>4400</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="3">
         <f t="shared" si="2"/>
         <v>780</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="3">
         <f t="shared" ref="K40:L55" si="5">K39+5</f>
         <v>200</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="3">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
     </row>
     <row r="41" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="3">
         <v>36</v>
       </c>
       <c r="D41" s="3">
-        <v>469120</v>
+        <v>582580</v>
       </c>
       <c r="E41" s="3">
         <v>281472</v>
@@ -4076,38 +4073,38 @@
       <c r="F41" s="3">
         <v>240000</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <v>2425</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="12">
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="3">
         <f t="shared" si="1"/>
         <v>4500</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="3">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="3">
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="3">
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
     </row>
     <row r="42" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="3">
         <v>37</v>
       </c>
       <c r="D42" s="3">
-        <v>493340</v>
+        <v>609470</v>
       </c>
       <c r="E42" s="3">
         <v>296004</v>
@@ -4115,38 +4112,38 @@
       <c r="F42" s="3">
         <v>245000</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <v>2550</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="12">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="3">
         <f t="shared" si="1"/>
         <v>4600</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="3">
         <f t="shared" si="2"/>
         <v>820</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="3">
         <f t="shared" si="5"/>
         <v>210</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="3">
         <f t="shared" si="5"/>
         <v>210</v>
       </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
     </row>
     <row r="43" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="3">
         <v>38</v>
       </c>
       <c r="D43" s="3">
-        <v>518160</v>
+        <v>636960</v>
       </c>
       <c r="E43" s="3">
         <v>310896</v>
@@ -4154,38 +4151,38 @@
       <c r="F43" s="3">
         <v>250000</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="12">
         <v>2675</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="12">
         <f t="shared" si="0"/>
         <v>335</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="3">
         <f t="shared" si="1"/>
         <v>4700</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="3">
         <f t="shared" si="2"/>
         <v>840</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="3">
         <f t="shared" si="5"/>
         <v>215</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="3">
         <f t="shared" si="5"/>
         <v>215</v>
       </c>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
     </row>
     <row r="44" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="3">
         <v>39</v>
       </c>
       <c r="D44" s="3">
-        <v>543580</v>
+        <v>738000</v>
       </c>
       <c r="E44" s="3">
         <v>326148</v>
@@ -4193,38 +4190,38 @@
       <c r="F44" s="3">
         <v>255000</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="12">
         <v>2800</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="12">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="3">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="3">
         <f t="shared" si="2"/>
         <v>860</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="3">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="3">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
     </row>
     <row r="45" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="3">
         <v>40</v>
       </c>
       <c r="D45" s="3">
-        <v>610720</v>
+        <v>928840</v>
       </c>
       <c r="E45" s="3">
         <v>366432</v>
@@ -4232,38 +4229,38 @@
       <c r="F45" s="3">
         <v>260000</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="12">
         <v>2925</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="12">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="3">
         <f t="shared" si="1"/>
         <v>4900</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="3">
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="3">
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="3">
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
     </row>
     <row r="46" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="3">
         <v>41</v>
       </c>
       <c r="D46" s="3">
-        <v>638840</v>
+        <v>962780</v>
       </c>
       <c r="E46" s="3">
         <v>383304</v>
@@ -4271,38 +4268,38 @@
       <c r="F46" s="3">
         <v>270000</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="12">
         <v>3050</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="12">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="3">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="3">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="3">
         <f t="shared" si="5"/>
         <v>230</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="3">
         <f t="shared" si="5"/>
         <v>230</v>
       </c>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
     </row>
     <row r="47" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="3">
         <v>42</v>
       </c>
       <c r="D47" s="3">
-        <v>667560</v>
+        <v>997320</v>
       </c>
       <c r="E47" s="3">
         <v>400536</v>
@@ -4310,38 +4307,38 @@
       <c r="F47" s="3">
         <v>280000</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="12">
         <v>3175</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="12">
         <f t="shared" si="0"/>
         <v>355</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="3">
         <f t="shared" si="1"/>
         <v>5100</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="3">
         <f t="shared" si="2"/>
         <v>920</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="3">
         <f t="shared" si="5"/>
         <v>235</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="3">
         <f t="shared" si="5"/>
         <v>235</v>
       </c>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
     </row>
     <row r="48" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="3">
         <v>43</v>
       </c>
       <c r="D48" s="3">
-        <v>696880</v>
+        <v>1032460</v>
       </c>
       <c r="E48" s="3">
         <v>418128</v>
@@ -4349,38 +4346,38 @@
       <c r="F48" s="3">
         <v>290000</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="12">
         <v>3300</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="12">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="3">
         <f t="shared" si="1"/>
         <v>5200</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="3">
         <f t="shared" si="2"/>
         <v>940</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="3">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="3">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
     </row>
     <row r="49" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="3">
         <v>44</v>
       </c>
       <c r="D49" s="3">
-        <v>726800</v>
+        <v>1068200</v>
       </c>
       <c r="E49" s="3">
         <v>436080</v>
@@ -4388,38 +4385,38 @@
       <c r="F49" s="3">
         <v>300000</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="12">
         <v>3425</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="12">
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="3">
         <f t="shared" si="1"/>
         <v>5300</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="3">
         <f t="shared" si="2"/>
         <v>960</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="3">
         <f t="shared" si="5"/>
         <v>245</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="3">
         <f t="shared" si="5"/>
         <v>245</v>
       </c>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
     </row>
     <row r="50" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="3">
         <v>45</v>
       </c>
       <c r="D50" s="3">
-        <v>757320</v>
+        <v>1104540</v>
       </c>
       <c r="E50" s="3">
         <v>454392</v>
@@ -4427,38 +4424,38 @@
       <c r="F50" s="3">
         <v>310000</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="12">
         <v>3550</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="12">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="3">
         <f t="shared" si="1"/>
         <v>5400</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="3">
         <f t="shared" si="2"/>
         <v>980</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="3">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50" s="3">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
     </row>
     <row r="51" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="3">
         <v>46</v>
       </c>
       <c r="D51" s="3">
-        <v>788440</v>
+        <v>1141480</v>
       </c>
       <c r="E51" s="3">
         <v>473064</v>
@@ -4466,38 +4463,38 @@
       <c r="F51" s="3">
         <v>320000</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="12">
         <v>3675</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="12">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="3">
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="3">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K51" s="3">
         <f t="shared" si="5"/>
         <v>255</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L51" s="3">
         <f t="shared" si="5"/>
         <v>255</v>
       </c>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
     </row>
     <row r="52" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="3">
         <v>47</v>
       </c>
       <c r="D52" s="3">
-        <v>820160</v>
+        <v>1179020</v>
       </c>
       <c r="E52" s="3">
         <v>492096</v>
@@ -4505,38 +4502,38 @@
       <c r="F52" s="3">
         <v>330000</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="12">
         <v>3800</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="12">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="3">
         <f t="shared" si="1"/>
         <v>5600</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="3">
         <f t="shared" si="2"/>
         <v>1020</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K52" s="3">
         <f t="shared" si="5"/>
         <v>260</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52" s="3">
         <f t="shared" si="5"/>
         <v>260</v>
       </c>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
     </row>
     <row r="53" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="3">
         <v>48</v>
       </c>
       <c r="D53" s="3">
-        <v>852480</v>
+        <v>1217160</v>
       </c>
       <c r="E53" s="3">
         <v>511488</v>
@@ -4544,38 +4541,38 @@
       <c r="F53" s="3">
         <v>340000</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="12">
         <v>3925</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="12">
         <f t="shared" si="0"/>
         <v>385</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="3">
         <f t="shared" si="1"/>
         <v>5700</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="3">
         <f t="shared" si="2"/>
         <v>1040</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K53" s="3">
         <f t="shared" si="5"/>
         <v>265</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L53" s="3">
         <f t="shared" si="5"/>
         <v>265</v>
       </c>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
     </row>
     <row r="54" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="3">
         <v>49</v>
       </c>
       <c r="D54" s="3">
-        <v>885400</v>
+        <v>1463300</v>
       </c>
       <c r="E54" s="3">
         <v>531240</v>
@@ -4583,38 +4580,38 @@
       <c r="F54" s="3">
         <v>350000</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="12">
         <v>4050</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="12">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="3">
         <f t="shared" si="1"/>
         <v>5800</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J54" s="3">
         <f t="shared" si="2"/>
         <v>1060</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="3">
         <f t="shared" si="5"/>
         <v>270</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L54" s="3">
         <f t="shared" si="5"/>
         <v>270</v>
       </c>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
     </row>
     <row r="55" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="3">
         <v>50</v>
       </c>
       <c r="D55" s="3">
-        <v>1132800</v>
+        <v>1826050</v>
       </c>
       <c r="E55" s="3">
         <v>679680</v>
@@ -4622,38 +4619,38 @@
       <c r="F55" s="3">
         <v>360000</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="12">
         <v>4175</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="12">
         <f t="shared" si="0"/>
         <v>395</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="3">
         <f t="shared" si="1"/>
         <v>5900</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="3">
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="3">
         <f t="shared" si="5"/>
         <v>275</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="3">
         <f t="shared" si="5"/>
         <v>275</v>
       </c>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
     </row>
     <row r="56" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="3">
         <v>51</v>
       </c>
       <c r="D56" s="3">
-        <v>1261700</v>
+        <v>1971300</v>
       </c>
       <c r="E56" s="3">
         <v>757020</v>
@@ -4661,38 +4658,38 @@
       <c r="F56" s="3">
         <v>370000</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="12">
         <v>4300</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="12">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="3">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J56" s="3">
         <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="3">
         <f t="shared" ref="K56:L71" si="6">K55+5</f>
         <v>280</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L56" s="3">
         <f t="shared" si="6"/>
         <v>280</v>
       </c>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
     </row>
     <row r="57" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="3">
         <v>52</v>
       </c>
       <c r="D57" s="3">
-        <v>1393600</v>
+        <v>2119550</v>
       </c>
       <c r="E57" s="3">
         <v>836160</v>
@@ -4700,38 +4697,38 @@
       <c r="F57" s="3">
         <v>380000</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="12">
         <v>4425</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="12">
         <f t="shared" si="0"/>
         <v>405</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="3">
         <f t="shared" si="1"/>
         <v>6100</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="3">
         <f t="shared" si="2"/>
         <v>1120</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K57" s="3">
         <f t="shared" si="6"/>
         <v>285</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L57" s="3">
         <f t="shared" si="6"/>
         <v>285</v>
       </c>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
     </row>
     <row r="58" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="3">
         <v>53</v>
       </c>
       <c r="D58" s="3">
-        <v>1528500</v>
+        <v>2270800</v>
       </c>
       <c r="E58" s="3">
         <v>917100</v>
@@ -4739,38 +4736,38 @@
       <c r="F58" s="3">
         <v>390000</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="12">
         <v>4550</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="12">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="3">
         <f t="shared" si="1"/>
         <v>6200</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J58" s="3">
         <f t="shared" si="2"/>
         <v>1140</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="3">
         <f t="shared" si="6"/>
         <v>290</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58" s="3">
         <f t="shared" si="6"/>
         <v>290</v>
       </c>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
     </row>
     <row r="59" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="3">
         <v>54</v>
       </c>
       <c r="D59" s="3">
-        <v>1666400</v>
+        <v>2425050</v>
       </c>
       <c r="E59" s="3">
         <v>999840</v>
@@ -4778,38 +4775,38 @@
       <c r="F59" s="3">
         <v>400000</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="12">
         <v>4675</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="12">
         <f t="shared" si="0"/>
         <v>415</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="3">
         <f t="shared" si="1"/>
         <v>6300</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J59" s="3">
         <f t="shared" si="2"/>
         <v>1160</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59" s="3">
         <f t="shared" si="6"/>
         <v>295</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L59" s="3">
         <f t="shared" si="6"/>
         <v>295</v>
       </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
     </row>
     <row r="60" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="3">
         <v>55</v>
       </c>
       <c r="D60" s="3">
-        <v>1807300</v>
+        <v>2582300</v>
       </c>
       <c r="E60" s="3">
         <v>1084380</v>
@@ -4817,38 +4814,38 @@
       <c r="F60" s="3">
         <v>410000</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="12">
         <v>4800</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="12">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="3">
         <f t="shared" si="1"/>
         <v>6400</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J60" s="3">
         <f t="shared" si="2"/>
         <v>1180</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="3">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L60" s="3">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
     </row>
     <row r="61" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="3">
         <v>56</v>
       </c>
       <c r="D61" s="3">
-        <v>1951200</v>
+        <v>2742550</v>
       </c>
       <c r="E61" s="3">
         <v>1170720</v>
@@ -4856,38 +4853,38 @@
       <c r="F61" s="3">
         <v>420000</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="12">
         <v>4925</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="12">
         <f t="shared" si="0"/>
         <v>425</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="3">
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J61" s="3">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="3">
         <f t="shared" si="6"/>
         <v>305</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L61" s="3">
         <f t="shared" si="6"/>
         <v>305</v>
       </c>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
     </row>
     <row r="62" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="3">
         <v>57</v>
       </c>
       <c r="D62" s="3">
-        <v>2098100</v>
+        <v>2905800</v>
       </c>
       <c r="E62" s="3">
         <v>1258860</v>
@@ -4895,38 +4892,38 @@
       <c r="F62" s="3">
         <v>430000</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="12">
         <v>5050</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="12">
         <f t="shared" si="0"/>
         <v>430</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="3">
         <f t="shared" si="1"/>
         <v>6600</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J62" s="3">
         <f t="shared" si="2"/>
         <v>1220</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="3">
         <f t="shared" si="6"/>
         <v>310</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62" s="3">
         <f t="shared" si="6"/>
         <v>310</v>
       </c>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
     </row>
     <row r="63" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="3">
         <v>58</v>
       </c>
       <c r="D63" s="3">
-        <v>2248000</v>
+        <v>3072050</v>
       </c>
       <c r="E63" s="3">
         <v>1348800</v>
@@ -4934,38 +4931,38 @@
       <c r="F63" s="3">
         <v>440000</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="12">
         <v>5175</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="12">
         <f t="shared" si="0"/>
         <v>435</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I63" s="3">
         <f t="shared" si="1"/>
         <v>6700</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J63" s="3">
         <f t="shared" si="2"/>
         <v>1240</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K63" s="3">
         <f t="shared" si="6"/>
         <v>315</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L63" s="3">
         <f t="shared" si="6"/>
         <v>315</v>
       </c>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
     </row>
     <row r="64" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="3">
         <v>59</v>
       </c>
       <c r="D64" s="3">
-        <v>2400900</v>
+        <v>3241300</v>
       </c>
       <c r="E64" s="3">
         <v>1440540</v>
@@ -4973,38 +4970,38 @@
       <c r="F64" s="3">
         <v>450000</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="12">
         <v>5300</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="12">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="3">
         <f t="shared" si="1"/>
         <v>6800</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J64" s="3">
         <f t="shared" si="2"/>
         <v>1260</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K64" s="3">
         <f t="shared" si="6"/>
         <v>320</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L64" s="3">
         <f t="shared" si="6"/>
         <v>320</v>
       </c>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
     </row>
     <row r="65" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="3">
         <v>60</v>
       </c>
       <c r="D65" s="3">
-        <v>2556800</v>
+        <v>3413550</v>
       </c>
       <c r="E65" s="3">
         <v>1500000</v>
@@ -5012,38 +5009,38 @@
       <c r="F65" s="3">
         <v>460000</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="12">
         <v>5425</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="12">
         <f t="shared" si="0"/>
         <v>445</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="3">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="J65" s="11">
+      <c r="J65" s="3">
         <f t="shared" si="2"/>
         <v>1280</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K65" s="3">
         <f t="shared" si="6"/>
         <v>325</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L65" s="3">
         <f t="shared" si="6"/>
         <v>325</v>
       </c>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
     </row>
     <row r="66" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="3">
         <v>61</v>
       </c>
       <c r="D66" s="3">
-        <v>3873100</v>
+        <v>4825850</v>
       </c>
       <c r="E66" s="3">
         <v>1600000</v>
@@ -5051,38 +5048,38 @@
       <c r="F66" s="3">
         <v>470000</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="12">
         <v>5550</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="12">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="3">
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J66" s="3">
         <f t="shared" si="2"/>
         <v>1300</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K66" s="3">
         <f t="shared" si="6"/>
         <v>330</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L66" s="3">
         <f t="shared" si="6"/>
         <v>330</v>
       </c>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
     </row>
     <row r="67" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="3">
         <v>62</v>
       </c>
       <c r="D67" s="3">
-        <v>5219400</v>
+        <v>6268150</v>
       </c>
       <c r="E67" s="3">
         <v>1700000</v>
@@ -5090,38 +5087,38 @@
       <c r="F67" s="3">
         <v>480000</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="12">
         <v>5675</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="12">
         <f t="shared" si="0"/>
         <v>455</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67" s="3">
         <f t="shared" si="1"/>
         <v>7100</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J67" s="3">
         <f t="shared" si="2"/>
         <v>1320</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K67" s="3">
         <f t="shared" si="6"/>
         <v>335</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L67" s="3">
         <f t="shared" si="6"/>
         <v>335</v>
       </c>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
     </row>
     <row r="68" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="3">
         <v>63</v>
       </c>
       <c r="D68" s="3">
-        <v>6595700</v>
+        <v>7740450</v>
       </c>
       <c r="E68" s="3">
         <v>1800000</v>
@@ -5129,38 +5126,38 @@
       <c r="F68" s="3">
         <v>490000</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="12">
         <v>5800</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="12">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68" s="3">
         <f t="shared" si="1"/>
         <v>7200</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J68" s="3">
         <f t="shared" si="2"/>
         <v>1340</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68" s="3">
         <f t="shared" si="6"/>
         <v>340</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L68" s="3">
         <f t="shared" si="6"/>
         <v>340</v>
       </c>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
     </row>
     <row r="69" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="3">
         <v>64</v>
       </c>
       <c r="D69" s="3">
-        <v>8002000</v>
+        <v>9242750</v>
       </c>
       <c r="E69" s="3">
         <v>1900000</v>
@@ -5168,38 +5165,38 @@
       <c r="F69" s="3">
         <v>500000</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="12">
         <v>5925</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="12">
         <f t="shared" si="0"/>
         <v>465</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I69" s="3">
         <f t="shared" si="1"/>
         <v>7300</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J69" s="3">
         <f t="shared" si="2"/>
         <v>1360</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K69" s="3">
         <f t="shared" si="6"/>
         <v>345</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L69" s="3">
         <f t="shared" si="6"/>
         <v>345</v>
       </c>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
     </row>
     <row r="70" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="3">
         <v>65</v>
       </c>
       <c r="D70" s="3">
-        <v>9438300</v>
+        <v>10775050</v>
       </c>
       <c r="E70" s="3">
         <v>2000000</v>
@@ -5207,38 +5204,38 @@
       <c r="F70" s="3">
         <v>510000</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="12">
         <v>6050</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="12">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I70" s="3">
         <f t="shared" si="1"/>
         <v>7400</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J70" s="3">
         <f t="shared" si="2"/>
         <v>1380</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K70" s="3">
         <f t="shared" si="6"/>
         <v>350</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L70" s="3">
         <f t="shared" si="6"/>
         <v>350</v>
       </c>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
     </row>
     <row r="71" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="3">
         <v>66</v>
       </c>
       <c r="D71" s="3">
-        <v>12249000</v>
+        <v>13770250</v>
       </c>
       <c r="E71" s="3">
         <v>2100000</v>
@@ -5246,38 +5243,38 @@
       <c r="F71" s="3">
         <v>520000</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71" s="12">
         <v>6175</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71" s="12">
         <f t="shared" si="0"/>
         <v>475</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I71" s="3">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="J71" s="11">
+      <c r="J71" s="3">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K71" s="3">
         <f t="shared" si="6"/>
         <v>355</v>
       </c>
-      <c r="L71" s="11">
+      <c r="L71" s="3">
         <f t="shared" si="6"/>
         <v>355</v>
       </c>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
     </row>
     <row r="72" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="3">
         <v>67</v>
       </c>
       <c r="D72" s="3">
-        <v>15136000</v>
+        <v>16841750</v>
       </c>
       <c r="E72" s="3">
         <v>2200000</v>
@@ -5285,38 +5282,38 @@
       <c r="F72" s="3">
         <v>530000</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="12">
         <v>6300</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="12">
         <f t="shared" ref="H72:H75" si="7">H71+5</f>
         <v>480</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I72" s="3">
         <f t="shared" ref="I72:I75" si="8">I71+100</f>
         <v>7600</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J72" s="3">
         <f t="shared" ref="J72:J75" si="9">J71+20</f>
         <v>1420</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72" s="3">
         <f t="shared" ref="K72:L75" si="10">K71+5</f>
         <v>360</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L72" s="3">
         <f t="shared" si="10"/>
         <v>360</v>
       </c>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
     </row>
     <row r="73" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="3">
         <v>68</v>
       </c>
       <c r="D73" s="3">
-        <v>19474000</v>
+        <v>21452750</v>
       </c>
       <c r="E73" s="3">
         <v>2300000</v>
@@ -5324,38 +5321,38 @@
       <c r="F73" s="3">
         <v>540000</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="12">
         <v>6425</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H73" s="12">
         <f t="shared" si="7"/>
         <v>485</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I73" s="3">
         <f t="shared" si="8"/>
         <v>7700</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J73" s="3">
         <f t="shared" si="9"/>
         <v>1440</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K73" s="3">
         <f t="shared" si="10"/>
         <v>365</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L73" s="3">
         <f t="shared" si="10"/>
         <v>365</v>
       </c>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
     </row>
     <row r="74" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="3">
         <v>69</v>
       </c>
       <c r="D74" s="3">
-        <v>28120000</v>
+        <v>29890000</v>
       </c>
       <c r="E74" s="3">
         <v>2400000</v>
@@ -5363,38 +5360,38 @@
       <c r="F74" s="3">
         <v>550000</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G74" s="12">
         <v>6550</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="12">
         <f t="shared" si="7"/>
         <v>490</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I74" s="3">
         <f t="shared" si="8"/>
         <v>7800</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J74" s="3">
         <f t="shared" si="9"/>
         <v>1460</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K74" s="3">
         <f t="shared" si="10"/>
         <v>370</v>
       </c>
-      <c r="L74" s="11">
+      <c r="L74" s="3">
         <f t="shared" si="10"/>
         <v>370</v>
       </c>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
     </row>
     <row r="75" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="3">
         <v>70</v>
       </c>
       <c r="D75" s="3">
-        <v>32683000</v>
+        <v>34718500</v>
       </c>
       <c r="E75" s="3">
         <v>2500000</v>
@@ -5402,31 +5399,31 @@
       <c r="F75" s="3">
         <v>560000</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="12">
         <v>6675</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75" s="12">
         <f t="shared" si="7"/>
         <v>495</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75" s="3">
         <f t="shared" si="8"/>
         <v>7900</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J75" s="3">
         <f t="shared" si="9"/>
         <v>1480</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K75" s="3">
         <f t="shared" si="10"/>
         <v>375</v>
       </c>
-      <c r="L75" s="11">
+      <c r="L75" s="3">
         <f t="shared" si="10"/>
         <v>375</v>
       </c>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>

--- a/Excel/ExpConfig.xlsx
+++ b/Excel/ExpConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB9B484-16CA-48B6-8AE3-0CA1B5133C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE770B8-BE06-48E7-AB59-165B4AC186EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2581,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/ExpConfig.xlsx
+++ b/Excel/ExpConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE770B8-BE06-48E7-AB59-165B4AC186EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD68730-C2CD-4C21-92DE-73B05D2203DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2581,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2708,10 +2708,10 @@
         <v>225</v>
       </c>
       <c r="E6" s="3">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="F6" s="3">
-        <v>80000</v>
+        <v>32500</v>
       </c>
       <c r="G6" s="11">
         <v>200</v>
@@ -2742,10 +2742,10 @@
         <v>500</v>
       </c>
       <c r="E7" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F7" s="3">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="G7" s="12">
         <v>230</v>
@@ -2781,10 +2781,10 @@
         <v>1125</v>
       </c>
       <c r="E8" s="3">
-        <v>675</v>
+        <v>800</v>
       </c>
       <c r="F8" s="3">
-        <v>80000</v>
+        <v>37500</v>
       </c>
       <c r="G8" s="12">
         <v>260</v>
@@ -2820,10 +2820,10 @@
         <v>1350</v>
       </c>
       <c r="E9" s="3">
-        <v>810</v>
+        <v>1100</v>
       </c>
       <c r="F9" s="3">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G9" s="12">
         <v>290</v>
@@ -2862,7 +2862,7 @@
         <v>1560</v>
       </c>
       <c r="F10" s="3">
-        <v>85000</v>
+        <v>42500</v>
       </c>
       <c r="G10" s="12">
         <v>320</v>
@@ -2901,7 +2901,7 @@
         <v>2550</v>
       </c>
       <c r="F11" s="3">
-        <v>90000</v>
+        <v>45000</v>
       </c>
       <c r="G11" s="12">
         <v>350</v>
@@ -2940,7 +2940,7 @@
         <v>3960</v>
       </c>
       <c r="F12" s="3">
-        <v>95000</v>
+        <v>47500</v>
       </c>
       <c r="G12" s="12">
         <v>380</v>
@@ -2979,7 +2979,7 @@
         <v>5040</v>
       </c>
       <c r="F13" s="3">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G13" s="12">
         <v>410</v>
@@ -3018,7 +3018,7 @@
         <v>6000</v>
       </c>
       <c r="F14" s="3">
-        <v>105000</v>
+        <v>52500</v>
       </c>
       <c r="G14" s="12">
         <v>440</v>
@@ -3057,7 +3057,7 @@
         <v>7695</v>
       </c>
       <c r="F15" s="3">
-        <v>110000</v>
+        <v>55000</v>
       </c>
       <c r="G15" s="12">
         <v>480</v>
@@ -3096,7 +3096,7 @@
         <v>9636</v>
       </c>
       <c r="F16" s="3">
-        <v>115000</v>
+        <v>57500</v>
       </c>
       <c r="G16" s="12">
         <v>520</v>
@@ -3135,7 +3135,7 @@
         <v>11700</v>
       </c>
       <c r="F17" s="3">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="12">
         <v>560</v>
@@ -3174,7 +3174,7 @@
         <v>13440</v>
       </c>
       <c r="F18" s="3">
-        <v>125000</v>
+        <v>62500</v>
       </c>
       <c r="G18" s="12">
         <v>600</v>
@@ -3213,7 +3213,7 @@
         <v>16368</v>
       </c>
       <c r="F19" s="3">
-        <v>130000</v>
+        <v>65000</v>
       </c>
       <c r="G19" s="12">
         <v>650</v>
@@ -3252,7 +3252,7 @@
         <v>25932</v>
       </c>
       <c r="F20" s="3">
-        <v>135000</v>
+        <v>67500</v>
       </c>
       <c r="G20" s="12">
         <v>700</v>
@@ -3291,7 +3291,7 @@
         <v>29856</v>
       </c>
       <c r="F21" s="3">
-        <v>140000</v>
+        <v>70000</v>
       </c>
       <c r="G21" s="12">
         <v>750</v>
@@ -3330,7 +3330,7 @@
         <v>34020</v>
       </c>
       <c r="F22" s="3">
-        <v>145000</v>
+        <v>72500</v>
       </c>
       <c r="G22" s="12">
         <v>800</v>
@@ -3369,7 +3369,7 @@
         <v>38424</v>
       </c>
       <c r="F23" s="3">
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="G23" s="12">
         <v>850</v>
@@ -3408,7 +3408,7 @@
         <v>43068</v>
       </c>
       <c r="F24" s="3">
-        <v>155000</v>
+        <v>77500</v>
       </c>
       <c r="G24" s="12">
         <v>900</v>
@@ -3447,7 +3447,7 @@
         <v>48888</v>
       </c>
       <c r="F25" s="3">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="G25" s="12">
         <v>950</v>
@@ -3486,7 +3486,7 @@
         <v>55254</v>
       </c>
       <c r="F26" s="3">
-        <v>165000</v>
+        <v>82500</v>
       </c>
       <c r="G26" s="12">
         <v>1000</v>
@@ -3525,7 +3525,7 @@
         <v>61812</v>
       </c>
       <c r="F27" s="3">
-        <v>170000</v>
+        <v>85000</v>
       </c>
       <c r="G27" s="12">
         <v>1075</v>
@@ -3564,7 +3564,7 @@
         <v>68730</v>
       </c>
       <c r="F28" s="3">
-        <v>175000</v>
+        <v>87500</v>
       </c>
       <c r="G28" s="12">
         <v>1150</v>
@@ -3603,7 +3603,7 @@
         <v>76008</v>
       </c>
       <c r="F29" s="3">
-        <v>180000</v>
+        <v>90000</v>
       </c>
       <c r="G29" s="12">
         <v>1225</v>
@@ -3642,7 +3642,7 @@
         <v>83646</v>
       </c>
       <c r="F30" s="3">
-        <v>185000</v>
+        <v>92500</v>
       </c>
       <c r="G30" s="12">
         <v>1300</v>
@@ -3681,7 +3681,7 @@
         <v>91920</v>
       </c>
       <c r="F31" s="3">
-        <v>190000</v>
+        <v>95000</v>
       </c>
       <c r="G31" s="12">
         <v>1375</v>
@@ -3720,7 +3720,7 @@
         <v>100296</v>
       </c>
       <c r="F32" s="3">
-        <v>195000</v>
+        <v>97500</v>
       </c>
       <c r="G32" s="12">
         <v>1450</v>
@@ -3759,7 +3759,7 @@
         <v>109032</v>
       </c>
       <c r="F33" s="3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="G33" s="12">
         <v>1525</v>
@@ -3798,7 +3798,7 @@
         <v>118128</v>
       </c>
       <c r="F34" s="3">
-        <v>205000</v>
+        <v>102500</v>
       </c>
       <c r="G34" s="12">
         <v>1600</v>
@@ -3837,7 +3837,7 @@
         <v>201144</v>
       </c>
       <c r="F35" s="3">
-        <v>210000</v>
+        <v>105000</v>
       </c>
       <c r="G35" s="12">
         <v>1700</v>
@@ -3876,7 +3876,7 @@
         <v>213846</v>
       </c>
       <c r="F36" s="3">
-        <v>215000</v>
+        <v>107500</v>
       </c>
       <c r="G36" s="12">
         <v>1800</v>
@@ -3915,7 +3915,7 @@
         <v>226560</v>
       </c>
       <c r="F37" s="3">
-        <v>220000</v>
+        <v>110000</v>
       </c>
       <c r="G37" s="12">
         <v>1925</v>
@@ -3954,7 +3954,7 @@
         <v>239634</v>
       </c>
       <c r="F38" s="3">
-        <v>225000</v>
+        <v>112500</v>
       </c>
       <c r="G38" s="12">
         <v>2050</v>
@@ -3993,7 +3993,7 @@
         <v>253068</v>
       </c>
       <c r="F39" s="3">
-        <v>230000</v>
+        <v>115000</v>
       </c>
       <c r="G39" s="12">
         <v>2175</v>
@@ -4032,7 +4032,7 @@
         <v>266862</v>
       </c>
       <c r="F40" s="3">
-        <v>235000</v>
+        <v>117500</v>
       </c>
       <c r="G40" s="12">
         <v>2300</v>
@@ -4071,7 +4071,7 @@
         <v>281472</v>
       </c>
       <c r="F41" s="3">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="G41" s="12">
         <v>2425</v>
@@ -4110,7 +4110,7 @@
         <v>296004</v>
       </c>
       <c r="F42" s="3">
-        <v>245000</v>
+        <v>122500</v>
       </c>
       <c r="G42" s="12">
         <v>2550</v>
@@ -4149,7 +4149,7 @@
         <v>310896</v>
       </c>
       <c r="F43" s="3">
-        <v>250000</v>
+        <v>125000</v>
       </c>
       <c r="G43" s="12">
         <v>2675</v>
@@ -4188,7 +4188,7 @@
         <v>326148</v>
       </c>
       <c r="F44" s="3">
-        <v>255000</v>
+        <v>127500</v>
       </c>
       <c r="G44" s="12">
         <v>2800</v>
@@ -4227,7 +4227,7 @@
         <v>366432</v>
       </c>
       <c r="F45" s="3">
-        <v>260000</v>
+        <v>130000</v>
       </c>
       <c r="G45" s="12">
         <v>2925</v>
@@ -4266,7 +4266,7 @@
         <v>383304</v>
       </c>
       <c r="F46" s="3">
-        <v>270000</v>
+        <v>135000</v>
       </c>
       <c r="G46" s="12">
         <v>3050</v>
@@ -4305,7 +4305,7 @@
         <v>400536</v>
       </c>
       <c r="F47" s="3">
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="G47" s="12">
         <v>3175</v>
@@ -4344,7 +4344,7 @@
         <v>418128</v>
       </c>
       <c r="F48" s="3">
-        <v>290000</v>
+        <v>145000</v>
       </c>
       <c r="G48" s="12">
         <v>3300</v>
@@ -4383,7 +4383,7 @@
         <v>436080</v>
       </c>
       <c r="F49" s="3">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="G49" s="12">
         <v>3425</v>
@@ -4422,7 +4422,7 @@
         <v>454392</v>
       </c>
       <c r="F50" s="3">
-        <v>310000</v>
+        <v>155000</v>
       </c>
       <c r="G50" s="12">
         <v>3550</v>
@@ -4461,7 +4461,7 @@
         <v>473064</v>
       </c>
       <c r="F51" s="3">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="G51" s="12">
         <v>3675</v>
@@ -4500,7 +4500,7 @@
         <v>492096</v>
       </c>
       <c r="F52" s="3">
-        <v>330000</v>
+        <v>165000</v>
       </c>
       <c r="G52" s="12">
         <v>3800</v>
@@ -4539,7 +4539,7 @@
         <v>511488</v>
       </c>
       <c r="F53" s="3">
-        <v>340000</v>
+        <v>170000</v>
       </c>
       <c r="G53" s="12">
         <v>3925</v>
@@ -4578,7 +4578,7 @@
         <v>531240</v>
       </c>
       <c r="F54" s="3">
-        <v>350000</v>
+        <v>175000</v>
       </c>
       <c r="G54" s="12">
         <v>4050</v>
@@ -4617,7 +4617,7 @@
         <v>679680</v>
       </c>
       <c r="F55" s="3">
-        <v>360000</v>
+        <v>180000</v>
       </c>
       <c r="G55" s="12">
         <v>4175</v>
@@ -4656,7 +4656,7 @@
         <v>757020</v>
       </c>
       <c r="F56" s="3">
-        <v>370000</v>
+        <v>185000</v>
       </c>
       <c r="G56" s="12">
         <v>4300</v>
@@ -4695,7 +4695,7 @@
         <v>836160</v>
       </c>
       <c r="F57" s="3">
-        <v>380000</v>
+        <v>190000</v>
       </c>
       <c r="G57" s="12">
         <v>4425</v>
@@ -4734,7 +4734,7 @@
         <v>917100</v>
       </c>
       <c r="F58" s="3">
-        <v>390000</v>
+        <v>195000</v>
       </c>
       <c r="G58" s="12">
         <v>4550</v>
@@ -4773,7 +4773,7 @@
         <v>999840</v>
       </c>
       <c r="F59" s="3">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="G59" s="12">
         <v>4675</v>
@@ -4812,7 +4812,7 @@
         <v>1084380</v>
       </c>
       <c r="F60" s="3">
-        <v>410000</v>
+        <v>205000</v>
       </c>
       <c r="G60" s="12">
         <v>4800</v>
@@ -4851,7 +4851,7 @@
         <v>1170720</v>
       </c>
       <c r="F61" s="3">
-        <v>420000</v>
+        <v>210000</v>
       </c>
       <c r="G61" s="12">
         <v>4925</v>
@@ -4890,7 +4890,7 @@
         <v>1258860</v>
       </c>
       <c r="F62" s="3">
-        <v>430000</v>
+        <v>215000</v>
       </c>
       <c r="G62" s="12">
         <v>5050</v>
@@ -4929,7 +4929,7 @@
         <v>1348800</v>
       </c>
       <c r="F63" s="3">
-        <v>440000</v>
+        <v>220000</v>
       </c>
       <c r="G63" s="12">
         <v>5175</v>
@@ -4968,7 +4968,7 @@
         <v>1440540</v>
       </c>
       <c r="F64" s="3">
-        <v>450000</v>
+        <v>225000</v>
       </c>
       <c r="G64" s="12">
         <v>5300</v>
@@ -5007,7 +5007,7 @@
         <v>1500000</v>
       </c>
       <c r="F65" s="3">
-        <v>460000</v>
+        <v>230000</v>
       </c>
       <c r="G65" s="12">
         <v>5425</v>
@@ -5046,7 +5046,7 @@
         <v>1600000</v>
       </c>
       <c r="F66" s="3">
-        <v>470000</v>
+        <v>235000</v>
       </c>
       <c r="G66" s="12">
         <v>5550</v>
@@ -5085,7 +5085,7 @@
         <v>1700000</v>
       </c>
       <c r="F67" s="3">
-        <v>480000</v>
+        <v>240000</v>
       </c>
       <c r="G67" s="12">
         <v>5675</v>
@@ -5124,7 +5124,7 @@
         <v>1800000</v>
       </c>
       <c r="F68" s="3">
-        <v>490000</v>
+        <v>245000</v>
       </c>
       <c r="G68" s="12">
         <v>5800</v>
@@ -5163,7 +5163,7 @@
         <v>1900000</v>
       </c>
       <c r="F69" s="3">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="G69" s="12">
         <v>5925</v>
@@ -5202,7 +5202,7 @@
         <v>2000000</v>
       </c>
       <c r="F70" s="3">
-        <v>510000</v>
+        <v>255000</v>
       </c>
       <c r="G70" s="12">
         <v>6050</v>
@@ -5241,7 +5241,7 @@
         <v>2100000</v>
       </c>
       <c r="F71" s="3">
-        <v>520000</v>
+        <v>260000</v>
       </c>
       <c r="G71" s="12">
         <v>6175</v>
@@ -5280,7 +5280,7 @@
         <v>2200000</v>
       </c>
       <c r="F72" s="3">
-        <v>530000</v>
+        <v>265000</v>
       </c>
       <c r="G72" s="12">
         <v>6300</v>
@@ -5319,7 +5319,7 @@
         <v>2300000</v>
       </c>
       <c r="F73" s="3">
-        <v>540000</v>
+        <v>270000</v>
       </c>
       <c r="G73" s="12">
         <v>6425</v>
@@ -5358,7 +5358,7 @@
         <v>2400000</v>
       </c>
       <c r="F74" s="3">
-        <v>550000</v>
+        <v>275000</v>
       </c>
       <c r="G74" s="12">
         <v>6550</v>
@@ -5397,7 +5397,7 @@
         <v>2500000</v>
       </c>
       <c r="F75" s="3">
-        <v>560000</v>
+        <v>280000</v>
       </c>
       <c r="G75" s="12">
         <v>6675</v>

--- a/Excel/ExpConfig.xlsx
+++ b/Excel/ExpConfig.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD68730-C2CD-4C21-92DE-73B05D2203DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0C8552-1D4A-459A-99A8-D5E3D3FDBC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2581,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2591,7 +2582,8 @@
     <col min="4" max="6" width="17.875" customWidth="1"/>
     <col min="7" max="8" width="17.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="8"/>
+    <col min="10" max="10" width="13" style="8" customWidth="1"/>
+    <col min="11" max="12" width="13" customWidth="1"/>
     <col min="14" max="17" width="9" style="16"/>
   </cols>
   <sheetData>

--- a/Excel/ExpConfig.xlsx
+++ b/Excel/ExpConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0C8552-1D4A-459A-99A8-D5E3D3FDBC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9133CD8A-F5E4-4727-9C1A-870D5D080904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2572,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2703,7 +2703,7 @@
         <v>300</v>
       </c>
       <c r="F6" s="3">
-        <v>32500</v>
+        <v>5000</v>
       </c>
       <c r="G6" s="11">
         <v>200</v>
@@ -2737,7 +2737,7 @@
         <v>500</v>
       </c>
       <c r="F7" s="3">
-        <v>35000</v>
+        <v>5500</v>
       </c>
       <c r="G7" s="12">
         <v>230</v>
@@ -2776,7 +2776,7 @@
         <v>800</v>
       </c>
       <c r="F8" s="3">
-        <v>37500</v>
+        <v>6000</v>
       </c>
       <c r="G8" s="12">
         <v>260</v>
@@ -2815,7 +2815,7 @@
         <v>1100</v>
       </c>
       <c r="F9" s="3">
-        <v>40000</v>
+        <v>6500</v>
       </c>
       <c r="G9" s="12">
         <v>290</v>
@@ -2854,7 +2854,7 @@
         <v>1560</v>
       </c>
       <c r="F10" s="3">
-        <v>42500</v>
+        <v>7000</v>
       </c>
       <c r="G10" s="12">
         <v>320</v>
@@ -2893,7 +2893,7 @@
         <v>2550</v>
       </c>
       <c r="F11" s="3">
-        <v>45000</v>
+        <v>7500</v>
       </c>
       <c r="G11" s="12">
         <v>350</v>
@@ -2932,7 +2932,7 @@
         <v>3960</v>
       </c>
       <c r="F12" s="3">
-        <v>47500</v>
+        <v>8000</v>
       </c>
       <c r="G12" s="12">
         <v>380</v>
@@ -2971,7 +2971,7 @@
         <v>5040</v>
       </c>
       <c r="F13" s="3">
-        <v>50000</v>
+        <v>8500</v>
       </c>
       <c r="G13" s="12">
         <v>410</v>
@@ -3010,7 +3010,7 @@
         <v>6000</v>
       </c>
       <c r="F14" s="3">
-        <v>52500</v>
+        <v>9000</v>
       </c>
       <c r="G14" s="12">
         <v>440</v>
@@ -3049,7 +3049,7 @@
         <v>7695</v>
       </c>
       <c r="F15" s="3">
-        <v>55000</v>
+        <v>9500</v>
       </c>
       <c r="G15" s="12">
         <v>480</v>
@@ -3088,7 +3088,7 @@
         <v>9636</v>
       </c>
       <c r="F16" s="3">
-        <v>57500</v>
+        <v>10500</v>
       </c>
       <c r="G16" s="12">
         <v>520</v>
@@ -3127,7 +3127,7 @@
         <v>11700</v>
       </c>
       <c r="F17" s="3">
-        <v>60000</v>
+        <v>11500</v>
       </c>
       <c r="G17" s="12">
         <v>560</v>
@@ -3166,7 +3166,7 @@
         <v>13440</v>
       </c>
       <c r="F18" s="3">
-        <v>62500</v>
+        <v>12500</v>
       </c>
       <c r="G18" s="12">
         <v>600</v>
@@ -3205,7 +3205,7 @@
         <v>16368</v>
       </c>
       <c r="F19" s="3">
-        <v>65000</v>
+        <v>13500</v>
       </c>
       <c r="G19" s="12">
         <v>650</v>
@@ -3244,7 +3244,7 @@
         <v>25932</v>
       </c>
       <c r="F20" s="3">
-        <v>67500</v>
+        <v>14500</v>
       </c>
       <c r="G20" s="12">
         <v>700</v>
@@ -3283,7 +3283,7 @@
         <v>29856</v>
       </c>
       <c r="F21" s="3">
-        <v>70000</v>
+        <v>15500</v>
       </c>
       <c r="G21" s="12">
         <v>750</v>
@@ -3322,7 +3322,7 @@
         <v>34020</v>
       </c>
       <c r="F22" s="3">
-        <v>72500</v>
+        <v>16500</v>
       </c>
       <c r="G22" s="12">
         <v>800</v>
@@ -3361,7 +3361,7 @@
         <v>38424</v>
       </c>
       <c r="F23" s="3">
-        <v>75000</v>
+        <v>17500</v>
       </c>
       <c r="G23" s="12">
         <v>850</v>
@@ -3400,7 +3400,7 @@
         <v>43068</v>
       </c>
       <c r="F24" s="3">
-        <v>77500</v>
+        <v>18500</v>
       </c>
       <c r="G24" s="12">
         <v>900</v>
@@ -3439,7 +3439,7 @@
         <v>48888</v>
       </c>
       <c r="F25" s="3">
-        <v>80000</v>
+        <v>19500</v>
       </c>
       <c r="G25" s="12">
         <v>950</v>
@@ -3478,7 +3478,7 @@
         <v>55254</v>
       </c>
       <c r="F26" s="3">
-        <v>82500</v>
+        <v>21000</v>
       </c>
       <c r="G26" s="12">
         <v>1000</v>
@@ -3517,7 +3517,7 @@
         <v>61812</v>
       </c>
       <c r="F27" s="3">
-        <v>85000</v>
+        <v>22500</v>
       </c>
       <c r="G27" s="12">
         <v>1075</v>
@@ -3556,7 +3556,7 @@
         <v>68730</v>
       </c>
       <c r="F28" s="3">
-        <v>87500</v>
+        <v>24000</v>
       </c>
       <c r="G28" s="12">
         <v>1150</v>
@@ -3595,7 +3595,7 @@
         <v>76008</v>
       </c>
       <c r="F29" s="3">
-        <v>90000</v>
+        <v>25500</v>
       </c>
       <c r="G29" s="12">
         <v>1225</v>
@@ -3634,7 +3634,7 @@
         <v>83646</v>
       </c>
       <c r="F30" s="3">
-        <v>92500</v>
+        <v>27000</v>
       </c>
       <c r="G30" s="12">
         <v>1300</v>
@@ -3673,7 +3673,7 @@
         <v>91920</v>
       </c>
       <c r="F31" s="3">
-        <v>95000</v>
+        <v>28500</v>
       </c>
       <c r="G31" s="12">
         <v>1375</v>
@@ -3712,7 +3712,7 @@
         <v>100296</v>
       </c>
       <c r="F32" s="3">
-        <v>97500</v>
+        <v>30000</v>
       </c>
       <c r="G32" s="12">
         <v>1450</v>
@@ -3751,7 +3751,7 @@
         <v>109032</v>
       </c>
       <c r="F33" s="3">
-        <v>100000</v>
+        <v>31500</v>
       </c>
       <c r="G33" s="12">
         <v>1525</v>
@@ -3790,7 +3790,7 @@
         <v>118128</v>
       </c>
       <c r="F34" s="3">
-        <v>102500</v>
+        <v>33000</v>
       </c>
       <c r="G34" s="12">
         <v>1600</v>
@@ -3829,7 +3829,7 @@
         <v>201144</v>
       </c>
       <c r="F35" s="3">
-        <v>105000</v>
+        <v>34500</v>
       </c>
       <c r="G35" s="12">
         <v>1700</v>
@@ -3868,7 +3868,7 @@
         <v>213846</v>
       </c>
       <c r="F36" s="3">
-        <v>107500</v>
+        <v>36500</v>
       </c>
       <c r="G36" s="12">
         <v>1800</v>
@@ -3907,7 +3907,7 @@
         <v>226560</v>
       </c>
       <c r="F37" s="3">
-        <v>110000</v>
+        <v>38500</v>
       </c>
       <c r="G37" s="12">
         <v>1925</v>
@@ -3946,7 +3946,7 @@
         <v>239634</v>
       </c>
       <c r="F38" s="3">
-        <v>112500</v>
+        <v>40500</v>
       </c>
       <c r="G38" s="12">
         <v>2050</v>
@@ -3985,7 +3985,7 @@
         <v>253068</v>
       </c>
       <c r="F39" s="3">
-        <v>115000</v>
+        <v>42500</v>
       </c>
       <c r="G39" s="12">
         <v>2175</v>
@@ -4024,7 +4024,7 @@
         <v>266862</v>
       </c>
       <c r="F40" s="3">
-        <v>117500</v>
+        <v>44500</v>
       </c>
       <c r="G40" s="12">
         <v>2300</v>
@@ -4063,7 +4063,7 @@
         <v>281472</v>
       </c>
       <c r="F41" s="3">
-        <v>120000</v>
+        <v>46500</v>
       </c>
       <c r="G41" s="12">
         <v>2425</v>
@@ -4102,7 +4102,7 @@
         <v>296004</v>
       </c>
       <c r="F42" s="3">
-        <v>122500</v>
+        <v>48500</v>
       </c>
       <c r="G42" s="12">
         <v>2550</v>
@@ -4141,7 +4141,7 @@
         <v>310896</v>
       </c>
       <c r="F43" s="3">
-        <v>125000</v>
+        <v>50500</v>
       </c>
       <c r="G43" s="12">
         <v>2675</v>
@@ -4180,7 +4180,7 @@
         <v>326148</v>
       </c>
       <c r="F44" s="3">
-        <v>127500</v>
+        <v>52500</v>
       </c>
       <c r="G44" s="12">
         <v>2800</v>
@@ -4219,7 +4219,7 @@
         <v>366432</v>
       </c>
       <c r="F45" s="3">
-        <v>130000</v>
+        <v>54500</v>
       </c>
       <c r="G45" s="12">
         <v>2925</v>
@@ -4258,7 +4258,7 @@
         <v>383304</v>
       </c>
       <c r="F46" s="3">
-        <v>135000</v>
+        <v>57000</v>
       </c>
       <c r="G46" s="12">
         <v>3050</v>
@@ -4297,7 +4297,7 @@
         <v>400536</v>
       </c>
       <c r="F47" s="3">
-        <v>140000</v>
+        <v>59500</v>
       </c>
       <c r="G47" s="12">
         <v>3175</v>
@@ -4336,7 +4336,7 @@
         <v>418128</v>
       </c>
       <c r="F48" s="3">
-        <v>145000</v>
+        <v>62000</v>
       </c>
       <c r="G48" s="12">
         <v>3300</v>
@@ -4375,7 +4375,7 @@
         <v>436080</v>
       </c>
       <c r="F49" s="3">
-        <v>150000</v>
+        <v>64500</v>
       </c>
       <c r="G49" s="12">
         <v>3425</v>
@@ -4414,7 +4414,7 @@
         <v>454392</v>
       </c>
       <c r="F50" s="3">
-        <v>155000</v>
+        <v>67000</v>
       </c>
       <c r="G50" s="12">
         <v>3550</v>
@@ -4453,7 +4453,7 @@
         <v>473064</v>
       </c>
       <c r="F51" s="3">
-        <v>160000</v>
+        <v>69500</v>
       </c>
       <c r="G51" s="12">
         <v>3675</v>
@@ -4492,7 +4492,7 @@
         <v>492096</v>
       </c>
       <c r="F52" s="3">
-        <v>165000</v>
+        <v>72000</v>
       </c>
       <c r="G52" s="12">
         <v>3800</v>
@@ -4531,7 +4531,7 @@
         <v>511488</v>
       </c>
       <c r="F53" s="3">
-        <v>170000</v>
+        <v>74500</v>
       </c>
       <c r="G53" s="12">
         <v>3925</v>
@@ -4570,7 +4570,7 @@
         <v>531240</v>
       </c>
       <c r="F54" s="3">
-        <v>175000</v>
+        <v>77000</v>
       </c>
       <c r="G54" s="12">
         <v>4050</v>
@@ -4609,7 +4609,7 @@
         <v>679680</v>
       </c>
       <c r="F55" s="3">
-        <v>180000</v>
+        <v>79500</v>
       </c>
       <c r="G55" s="12">
         <v>4175</v>
@@ -4648,7 +4648,7 @@
         <v>757020</v>
       </c>
       <c r="F56" s="3">
-        <v>185000</v>
+        <v>82000</v>
       </c>
       <c r="G56" s="12">
         <v>4300</v>
@@ -4687,7 +4687,7 @@
         <v>836160</v>
       </c>
       <c r="F57" s="3">
-        <v>190000</v>
+        <v>84500</v>
       </c>
       <c r="G57" s="12">
         <v>4425</v>
@@ -4726,7 +4726,7 @@
         <v>917100</v>
       </c>
       <c r="F58" s="3">
-        <v>195000</v>
+        <v>87000</v>
       </c>
       <c r="G58" s="12">
         <v>4550</v>
@@ -4765,7 +4765,7 @@
         <v>999840</v>
       </c>
       <c r="F59" s="3">
-        <v>200000</v>
+        <v>89500</v>
       </c>
       <c r="G59" s="12">
         <v>4675</v>
@@ -4804,7 +4804,7 @@
         <v>1084380</v>
       </c>
       <c r="F60" s="3">
-        <v>205000</v>
+        <v>92000</v>
       </c>
       <c r="G60" s="12">
         <v>4800</v>
@@ -4843,7 +4843,7 @@
         <v>1170720</v>
       </c>
       <c r="F61" s="3">
-        <v>210000</v>
+        <v>94500</v>
       </c>
       <c r="G61" s="12">
         <v>4925</v>
@@ -4882,7 +4882,7 @@
         <v>1258860</v>
       </c>
       <c r="F62" s="3">
-        <v>215000</v>
+        <v>97000</v>
       </c>
       <c r="G62" s="12">
         <v>5050</v>
@@ -4921,7 +4921,7 @@
         <v>1348800</v>
       </c>
       <c r="F63" s="3">
-        <v>220000</v>
+        <v>99500</v>
       </c>
       <c r="G63" s="12">
         <v>5175</v>
@@ -4960,7 +4960,7 @@
         <v>1440540</v>
       </c>
       <c r="F64" s="3">
-        <v>225000</v>
+        <v>102000</v>
       </c>
       <c r="G64" s="12">
         <v>5300</v>
@@ -4999,7 +4999,7 @@
         <v>1500000</v>
       </c>
       <c r="F65" s="3">
-        <v>230000</v>
+        <v>104500</v>
       </c>
       <c r="G65" s="12">
         <v>5425</v>
@@ -5038,7 +5038,7 @@
         <v>1600000</v>
       </c>
       <c r="F66" s="3">
-        <v>235000</v>
+        <v>107500</v>
       </c>
       <c r="G66" s="12">
         <v>5550</v>
@@ -5077,7 +5077,7 @@
         <v>1700000</v>
       </c>
       <c r="F67" s="3">
-        <v>240000</v>
+        <v>110500</v>
       </c>
       <c r="G67" s="12">
         <v>5675</v>
@@ -5116,7 +5116,7 @@
         <v>1800000</v>
       </c>
       <c r="F68" s="3">
-        <v>245000</v>
+        <v>113500</v>
       </c>
       <c r="G68" s="12">
         <v>5800</v>
@@ -5155,7 +5155,7 @@
         <v>1900000</v>
       </c>
       <c r="F69" s="3">
-        <v>250000</v>
+        <v>116500</v>
       </c>
       <c r="G69" s="12">
         <v>5925</v>
@@ -5194,7 +5194,7 @@
         <v>2000000</v>
       </c>
       <c r="F70" s="3">
-        <v>255000</v>
+        <v>119500</v>
       </c>
       <c r="G70" s="12">
         <v>6050</v>
@@ -5233,7 +5233,7 @@
         <v>2100000</v>
       </c>
       <c r="F71" s="3">
-        <v>260000</v>
+        <v>122500</v>
       </c>
       <c r="G71" s="12">
         <v>6175</v>
@@ -5272,7 +5272,7 @@
         <v>2200000</v>
       </c>
       <c r="F72" s="3">
-        <v>265000</v>
+        <v>125500</v>
       </c>
       <c r="G72" s="12">
         <v>6300</v>
@@ -5311,7 +5311,7 @@
         <v>2300000</v>
       </c>
       <c r="F73" s="3">
-        <v>270000</v>
+        <v>128500</v>
       </c>
       <c r="G73" s="12">
         <v>6425</v>
@@ -5350,7 +5350,7 @@
         <v>2400000</v>
       </c>
       <c r="F74" s="3">
-        <v>275000</v>
+        <v>131500</v>
       </c>
       <c r="G74" s="12">
         <v>6550</v>
@@ -5389,7 +5389,7 @@
         <v>2500000</v>
       </c>
       <c r="F75" s="3">
-        <v>280000</v>
+        <v>134500</v>
       </c>
       <c r="G75" s="12">
         <v>6675</v>

--- a/Excel/ExpConfig.xlsx
+++ b/Excel/ExpConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9133CD8A-F5E4-4727-9C1A-870D5D080904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE428697-97D4-46E1-A745-BD8CC9A794E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2572,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/ExpConfig.xlsx
+++ b/Excel/ExpConfig.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707CBC31-30E0-4807-9079-C798E6C97079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -52,9 +58,6 @@
     <t>PetUpExp</t>
   </si>
   <si>
-    <t>PetItemUpExp</t>
-  </si>
-  <si>
     <t>RoseExpPro</t>
   </si>
   <si>
@@ -75,18 +78,16 @@
   <si>
     <t>int</t>
   </si>
+  <si>
+    <t>PetItemUpExp</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,7 +104,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -147,151 +148,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,67 +188,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,138 +266,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -604,30 +366,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -642,105 +380,47 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -752,362 +432,486 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,495 +956,217 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -1666,128 +1192,128 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1797,16 +1323,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1828,375 +1354,330 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="314">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="36" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="21" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="常规 5 2 5" xfId="11"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8"/>
-    <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="19"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="20"/>
-    <cellStyle name="注释" xfId="21" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="22" builtinId="36"/>
-    <cellStyle name="常规 5 2 4" xfId="23"/>
-    <cellStyle name="标题 4" xfId="24" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="25" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="26"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="27"/>
-    <cellStyle name="标题" xfId="28" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="30"/>
-    <cellStyle name="标题 1" xfId="31" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="32"/>
-    <cellStyle name="标题 2" xfId="33" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="34" builtinId="32"/>
-    <cellStyle name="常规 5 2 3" xfId="35"/>
-    <cellStyle name="标题 3" xfId="36" builtinId="18"/>
-    <cellStyle name="常规 5 2 6" xfId="37"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="38"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="39"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="41"/>
-    <cellStyle name="输出" xfId="42" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="43"/>
-    <cellStyle name="计算" xfId="44" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="45"/>
-    <cellStyle name="检查单元格" xfId="46" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="48" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="49" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="51"/>
-    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="53"/>
-    <cellStyle name="汇总" xfId="54" builtinId="25"/>
-    <cellStyle name="好" xfId="55" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="59"/>
-    <cellStyle name="适中" xfId="60" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="61"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="62" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="63"/>
-    <cellStyle name="强调文字颜色 1" xfId="64" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="65"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="67" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="68"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="69" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="71" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="72"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="73" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="74" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="75" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="76"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="77" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="78" builtinId="43"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="81"/>
-    <cellStyle name="强调文字颜色 5" xfId="82" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="83" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="84" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="85" builtinId="49"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="88"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="90" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="91" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="92"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3 2 5" xfId="94"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="95"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="96"/>
-    <cellStyle name="常规 2 3 2 6" xfId="97"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="98"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="99"/>
-    <cellStyle name="常规 2 3 2 7" xfId="100"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="101"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="102"/>
-    <cellStyle name="常规 2 3 3 3" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="104"/>
-    <cellStyle name="常规 2 3 3 4" xfId="105"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="107"/>
-    <cellStyle name="常规 2 3 4 3" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="124"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="125"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="148"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="149"/>
-    <cellStyle name="常规 3" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="159"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="160"/>
-    <cellStyle name="常规 4" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="162"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="163"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="164"/>
-    <cellStyle name="常规 5" xfId="165"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="166"/>
-    <cellStyle name="注释 2" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="168"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="170"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="171"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="174"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="175"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="177"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="178"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="179"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="187"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="188"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="189"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="190"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="191"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="192"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="194"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="196"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="197"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="199"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="201"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="203"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="204"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="205"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="206"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="208"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="210"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="213"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="215"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="217"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="219"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="221"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="222"/>
-    <cellStyle name="常规 5 7" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="225"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="226"/>
-    <cellStyle name="注释 2 2 3 2" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="244"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="245"/>
-    <cellStyle name="注释 2 5 2" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="248"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="249"/>
-    <cellStyle name="常规 2 3 2 2" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="254"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="255"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="264"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="265"/>
-    <cellStyle name="常规 2 3 3 5" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="267"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="268"/>
-    <cellStyle name="常规 2 3 3 6" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="276"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="277"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="278"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="279"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="280"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="281"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="282"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="283"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="284"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="285"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="286"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="287"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="288"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="289"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="290"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="291"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="293"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="294"/>
-    <cellStyle name="注释 2 2" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="296"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="297"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="298"/>
-    <cellStyle name="常规 5 6" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="300"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="301"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="302"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="303"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="304"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="305"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="306"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="307"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="308"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="309"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="311"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="312"/>
-    <cellStyle name="常规 2" xfId="313"/>
-    <cellStyle name="常规 2 2" xfId="314"/>
-    <cellStyle name="常规 2 3" xfId="315"/>
-    <cellStyle name="常规 2 3 2" xfId="316"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="317"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="318"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="319"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="320"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="321"/>
-    <cellStyle name="注释 2 3 2" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="323"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="324"/>
-    <cellStyle name="常规 2 3 3" xfId="325"/>
-    <cellStyle name="常规 2 3 3 2" xfId="326"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="327"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="328"/>
-    <cellStyle name="注释 2 5" xfId="329"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="330"/>
-    <cellStyle name="常规 2 3 4" xfId="331"/>
-    <cellStyle name="常规 2 3 4 2" xfId="332"/>
-    <cellStyle name="常规 2 3 5" xfId="333"/>
-    <cellStyle name="常规 2 3 5 2" xfId="334"/>
-    <cellStyle name="常规 5 2 2 2" xfId="335"/>
-    <cellStyle name="常规 2 3 6" xfId="336"/>
-    <cellStyle name="常规 2 3 6 2" xfId="337"/>
-    <cellStyle name="常规 5 2 2 3" xfId="338"/>
-    <cellStyle name="常规 2 3 7" xfId="339"/>
-    <cellStyle name="常规 2 3 8" xfId="340"/>
-    <cellStyle name="常规 5 2 3 2" xfId="341"/>
-    <cellStyle name="常规 5 2 4 2" xfId="342"/>
-    <cellStyle name="常规 5 3" xfId="343"/>
-    <cellStyle name="常规 5 3 2" xfId="344"/>
-    <cellStyle name="常规 5 3 3" xfId="345"/>
-    <cellStyle name="常规 5 4" xfId="346"/>
-    <cellStyle name="常规 5 4 2" xfId="347"/>
-    <cellStyle name="常规 5 5" xfId="348"/>
-    <cellStyle name="常规 5 5 2" xfId="349"/>
-    <cellStyle name="注释 2 2 2" xfId="350"/>
-    <cellStyle name="注释 2 2 2 2" xfId="351"/>
-    <cellStyle name="注释 2 2 2 3" xfId="352"/>
-    <cellStyle name="注释 2 2 3" xfId="353"/>
-    <cellStyle name="注释 2 2 4" xfId="354"/>
-    <cellStyle name="注释 2 2 4 2" xfId="355"/>
-    <cellStyle name="注释 2 2 5" xfId="356"/>
-    <cellStyle name="注释 2 2 6" xfId="357"/>
-    <cellStyle name="注释 2 4" xfId="358"/>
-    <cellStyle name="注释 2 4 2" xfId="359"/>
-    <cellStyle name="注释 2 6" xfId="360"/>
-    <cellStyle name="注释 2 7" xfId="361"/>
+    <cellStyle name="常规 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 2 3" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="34" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="常规 2 3 4" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 2 3 6 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="常规 4" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="常规 5" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 5 2 6" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 5 3" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 5 4" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 5 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="常规 5 6" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="常规 5 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="常规 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="注释 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="注释 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="注释 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 2 3" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 2 3 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="注释 2 2 4" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 2 4 2" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="注释 2 4" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 4 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 5" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="注释 2 5 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="注释 2 6" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="注释 2 7" xfId="313" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -2216,11 +1697,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2505,19 +1994,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="6" width="17.875" customWidth="1"/>
@@ -2525,10 +2014,11 @@
     <col min="9" max="9" width="11.375" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" customWidth="1"/>
     <col min="11" max="12" width="13" customWidth="1"/>
-    <col min="14" max="17" width="9" style="3"/>
+    <col min="14" max="14" width="13.125" style="3" customWidth="1"/>
+    <col min="15" max="17" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="7:17">
+    <row r="1" spans="3:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="G1"/>
       <c r="H1"/>
       <c r="J1" s="12"/>
@@ -2537,7 +2027,7 @@
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:12">
+    <row r="3" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2569,7 +2059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:12">
+    <row r="4" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2579,61 +2069,61 @@
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="15" t="s">
+    </row>
+    <row r="5" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:12">
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="8">
         <v>1</v>
       </c>
@@ -2667,7 +2157,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:14">
+    <row r="7" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="8">
         <v>2</v>
       </c>
@@ -2706,7 +2196,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:14">
+    <row r="8" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="8">
         <v>3</v>
       </c>
@@ -2745,7 +2235,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:14">
+    <row r="9" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="8">
         <v>4</v>
       </c>
@@ -2784,7 +2274,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:14">
+    <row r="10" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -2823,7 +2313,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:14">
+    <row r="11" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="8">
         <v>6</v>
       </c>
@@ -2862,7 +2352,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:14">
+    <row r="12" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="8">
         <v>7</v>
       </c>
@@ -2901,7 +2391,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:14">
+    <row r="13" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="8">
         <v>8</v>
       </c>
@@ -2940,7 +2430,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:14">
+    <row r="14" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="8">
         <v>9</v>
       </c>
@@ -2979,7 +2469,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:14">
+    <row r="15" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="8">
         <v>10</v>
       </c>
@@ -3018,7 +2508,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:14">
+    <row r="16" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="8">
         <v>11</v>
       </c>
@@ -3057,7 +2547,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:14">
+    <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="8">
         <v>12</v>
       </c>
@@ -3096,7 +2586,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:14">
+    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="8">
         <v>13</v>
       </c>
@@ -3135,7 +2625,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:14">
+    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="8">
         <v>14</v>
       </c>
@@ -3174,7 +2664,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:14">
+    <row r="20" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="8">
         <v>15</v>
       </c>
@@ -3213,7 +2703,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:14">
+    <row r="21" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="8">
         <v>16</v>
       </c>
@@ -3252,7 +2742,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:14">
+    <row r="22" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="8">
         <v>17</v>
       </c>
@@ -3291,7 +2781,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:14">
+    <row r="23" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="8">
         <v>18</v>
       </c>
@@ -3330,7 +2820,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:14">
+    <row r="24" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="8">
         <v>19</v>
       </c>
@@ -3369,7 +2859,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:14">
+    <row r="25" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="8">
         <v>20</v>
       </c>
@@ -3408,7 +2898,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:14">
+    <row r="26" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="8">
         <v>21</v>
       </c>
@@ -3447,7 +2937,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:14">
+    <row r="27" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="8">
         <v>22</v>
       </c>
@@ -3486,7 +2976,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:14">
+    <row r="28" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="8">
         <v>23</v>
       </c>
@@ -3525,7 +3015,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:14">
+    <row r="29" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="8">
         <v>24</v>
       </c>
@@ -3564,7 +3054,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:14">
+    <row r="30" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="8">
         <v>25</v>
       </c>
@@ -3603,7 +3093,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:14">
+    <row r="31" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="8">
         <v>26</v>
       </c>
@@ -3642,7 +3132,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:14">
+    <row r="32" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="8">
         <v>27</v>
       </c>
@@ -3681,7 +3171,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:14">
+    <row r="33" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="8">
         <v>28</v>
       </c>
@@ -3720,7 +3210,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:14">
+    <row r="34" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="8">
         <v>29</v>
       </c>
@@ -3759,7 +3249,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:14">
+    <row r="35" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="8">
         <v>30</v>
       </c>
@@ -3798,7 +3288,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:14">
+    <row r="36" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="8">
         <v>31</v>
       </c>
@@ -3837,7 +3327,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:14">
+    <row r="37" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="8">
         <v>32</v>
       </c>
@@ -3876,7 +3366,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:14">
+    <row r="38" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="8">
         <v>33</v>
       </c>
@@ -3915,7 +3405,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:14">
+    <row r="39" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="8">
         <v>34</v>
       </c>
@@ -3954,7 +3444,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:14">
+    <row r="40" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="8">
         <v>35</v>
       </c>
@@ -3993,7 +3483,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:14">
+    <row r="41" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="8">
         <v>36</v>
       </c>
@@ -4032,7 +3522,7 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:14">
+    <row r="42" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="8">
         <v>37</v>
       </c>
@@ -4071,7 +3561,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:14">
+    <row r="43" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="8">
         <v>38</v>
       </c>
@@ -4110,7 +3600,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:14">
+    <row r="44" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="8">
         <v>39</v>
       </c>
@@ -4149,7 +3639,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:14">
+    <row r="45" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="8">
         <v>40</v>
       </c>
@@ -4188,7 +3678,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:14">
+    <row r="46" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="8">
         <v>41</v>
       </c>
@@ -4227,7 +3717,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:14">
+    <row r="47" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="8">
         <v>42</v>
       </c>
@@ -4266,7 +3756,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:14">
+    <row r="48" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="8">
         <v>43</v>
       </c>
@@ -4305,7 +3795,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:14">
+    <row r="49" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="8">
         <v>44</v>
       </c>
@@ -4344,7 +3834,7 @@
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:14">
+    <row r="50" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="8">
         <v>45</v>
       </c>
@@ -4383,7 +3873,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:14">
+    <row r="51" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="8">
         <v>46</v>
       </c>
@@ -4422,7 +3912,7 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:14">
+    <row r="52" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="8">
         <v>47</v>
       </c>
@@ -4461,7 +3951,7 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:14">
+    <row r="53" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="8">
         <v>48</v>
       </c>
@@ -4500,7 +3990,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:14">
+    <row r="54" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="8">
         <v>49</v>
       </c>
@@ -4539,7 +4029,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:14">
+    <row r="55" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="8">
         <v>50</v>
       </c>
@@ -4578,7 +4068,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:14">
+    <row r="56" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="8">
         <v>51</v>
       </c>
@@ -4617,7 +4107,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:14">
+    <row r="57" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="8">
         <v>52</v>
       </c>
@@ -4656,7 +4146,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:14">
+    <row r="58" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="8">
         <v>53</v>
       </c>
@@ -4695,7 +4185,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:14">
+    <row r="59" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="8">
         <v>54</v>
       </c>
@@ -4734,7 +4224,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:14">
+    <row r="60" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="8">
         <v>55</v>
       </c>
@@ -4773,7 +4263,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:14">
+    <row r="61" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="8">
         <v>56</v>
       </c>
@@ -4812,7 +4302,7 @@
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:14">
+    <row r="62" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="8">
         <v>57</v>
       </c>
@@ -4851,7 +4341,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:14">
+    <row r="63" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="8">
         <v>58</v>
       </c>
@@ -4890,7 +4380,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:14">
+    <row r="64" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="8">
         <v>59</v>
       </c>
@@ -4929,7 +4419,7 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:14">
+    <row r="65" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="8">
         <v>60</v>
       </c>
@@ -4968,7 +4458,7 @@
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:14">
+    <row r="66" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="8">
         <v>61</v>
       </c>
@@ -5007,7 +4497,7 @@
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:14">
+    <row r="67" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="8">
         <v>62</v>
       </c>
@@ -5046,7 +4536,7 @@
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:14">
+    <row r="68" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="8">
         <v>63</v>
       </c>
@@ -5085,7 +4575,7 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:14">
+    <row r="69" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="8">
         <v>64</v>
       </c>
@@ -5124,7 +4614,7 @@
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:14">
+    <row r="70" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="8">
         <v>65</v>
       </c>
@@ -5163,7 +4653,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:14">
+    <row r="71" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="8">
         <v>66</v>
       </c>
@@ -5202,7 +4692,7 @@
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:14">
+    <row r="72" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="8">
         <v>67</v>
       </c>
@@ -5241,7 +4731,7 @@
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:14">
+    <row r="73" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="8">
         <v>68</v>
       </c>
@@ -5280,7 +4770,7 @@
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:14">
+    <row r="74" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="8">
         <v>69</v>
       </c>
@@ -5319,7 +4809,7 @@
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:14">
+    <row r="75" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="8">
         <v>70</v>
       </c>
@@ -5359,8 +4849,8 @@
       <c r="N75" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/ExpConfig.xlsx
+++ b/Excel/ExpConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707CBC31-30E0-4807-9079-C798E6C97079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E273A764-167F-4252-8049-FD3170D39AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2002,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
